--- a/2021-2022/10-March/March Report.xlsx
+++ b/2021-2022/10-March/March Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Bhuvnesh\Hetal Ben\2021-2022\10-March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC01DC-DE94-41A8-A507-501251240333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E8C9A-B9A2-418B-935D-30CC68EA217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PATRAK-1. OPD-IPD Report" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Gov. Homeopathy Dispensory Ayurved Hospital(Majivana)     Ta.Porbandar    Di.Porbandar     Month: January 2022</t>
+    <t>Month :- March 2022</t>
   </si>
   <si>
-    <t>Month :- March 2022</t>
+    <t>Gov. Homeopathy Dispensory Ayurved Hospital(Majivana)     Ta.Porbandar    Di.Porbandar     Month: March 2022</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,9 +1005,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1045,23 +1042,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,26 +1072,28 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,24 +1122,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,6 +1138,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:AF1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22:Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1414,236 +1411,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="89"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="87"/>
     </row>
     <row r="2" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
+      <c r="A2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="75"/>
     </row>
     <row r="3" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="83"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="78"/>
     </row>
     <row r="4" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="86"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
     </row>
     <row r="5" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A5" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="75"/>
+      <c r="A5" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="84"/>
     </row>
     <row r="6" spans="1:29" ht="19.5" customHeight="1">
       <c r="A6" s="39"/>
-      <c r="B6" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="73" t="s">
+      <c r="B6" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="73" t="s">
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="75"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="84"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="37.5" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="76" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="69" t="s">
+      <c r="G7" s="93"/>
+      <c r="H7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="76" t="s">
+      <c r="I7" s="89"/>
+      <c r="J7" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="76" t="s">
+      <c r="K7" s="93"/>
+      <c r="L7" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="76" t="s">
+      <c r="M7" s="93"/>
+      <c r="N7" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="77"/>
-      <c r="P7" s="69" t="s">
+      <c r="O7" s="93"/>
+      <c r="P7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="71" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="72"/>
-      <c r="T7" s="71" t="s">
+      <c r="S7" s="91"/>
+      <c r="T7" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="71" t="s">
+      <c r="U7" s="91"/>
+      <c r="V7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="72"/>
-      <c r="X7" s="69" t="s">
+      <c r="W7" s="91"/>
+      <c r="X7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="70"/>
+      <c r="Y7" s="89"/>
       <c r="Z7" s="1"/>
       <c r="AA7" t="s">
         <v>119</v>
@@ -1848,11 +1845,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="46">
-        <f t="shared" ref="H10:H38" si="1">SUM(B10+D10+F10)</f>
+        <f t="shared" ref="H10:H34" si="1">SUM(B10+D10+F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="46">
-        <f t="shared" ref="I10:I38" si="2">SUM(C10+E10+G10)</f>
+        <f t="shared" ref="I10:I34" si="2">SUM(C10+E10+G10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="39">
@@ -1874,11 +1871,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="46">
-        <f t="shared" ref="P10:P38" si="3">SUM(J10+L10+N10)</f>
+        <f t="shared" ref="P10:P34" si="3">SUM(J10+L10+N10)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="46">
-        <f t="shared" ref="Q10:Q38" si="4">SUM(K10+M10+O10)</f>
+        <f t="shared" ref="Q10:Q34" si="4">SUM(K10+M10+O10)</f>
         <v>0</v>
       </c>
       <c r="R10" s="48">
@@ -1913,11 +1910,11 @@
         <f t="shared" ref="Y10" si="6">SUM(S10+U10+W10)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="55">
+      <c r="AA10" s="54">
         <f t="shared" ref="AA10:AA39" si="7">SUM(X10+Y10)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="56">
+      <c r="AC10" s="55">
         <f t="shared" ref="AC10:AC39" si="8">SUM(H10+I10)</f>
         <v>0</v>
       </c>
@@ -2010,11 +2007,11 @@
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="AA11" s="55">
+      <c r="AA11" s="54">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="AC11" s="56">
+      <c r="AC11" s="55">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -2107,11 +2104,11 @@
         <f>SUM(S12+U12+W12)</f>
         <v>8</v>
       </c>
-      <c r="AA12" s="55">
+      <c r="AA12" s="54">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="AC12" s="56">
+      <c r="AC12" s="55">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -2204,11 +2201,11 @@
         <f t="shared" ref="Y13:Y38" si="14">SUM(S13+U13+W13)</f>
         <v>5</v>
       </c>
-      <c r="AA13" s="55">
+      <c r="AA13" s="54">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="AC13" s="56">
+      <c r="AC13" s="55">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
@@ -2301,12 +2298,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="55">
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="56">
+      <c r="AC14" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2399,11 +2396,11 @@
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="AA15" s="55">
+      <c r="AA15" s="54">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="AC15" s="56">
+      <c r="AC15" s="55">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -2496,11 +2493,11 @@
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="AA16" s="55">
+      <c r="AA16" s="54">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="AC16" s="56">
+      <c r="AC16" s="55">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
@@ -2593,11 +2590,11 @@
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="AA17" s="55">
+      <c r="AA17" s="54">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="AC17" s="56">
+      <c r="AC17" s="55">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -2690,11 +2687,11 @@
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AA18" s="55">
+      <c r="AA18" s="54">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="AC18" s="56">
+      <c r="AC18" s="55">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
@@ -2787,11 +2784,11 @@
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="AA19" s="55">
+      <c r="AA19" s="54">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="AC19" s="56">
+      <c r="AC19" s="55">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -2884,11 +2881,11 @@
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AA20" s="55">
+      <c r="AA20" s="54">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AC20" s="56">
+      <c r="AC20" s="55">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
@@ -2977,11 +2974,11 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="55">
+      <c r="AA21" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="56">
+      <c r="AC21" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3074,11 +3071,11 @@
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="AA22" s="55">
+      <c r="AA22" s="54">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="AC22" s="56">
+      <c r="AC22" s="55">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -3106,10 +3103,12 @@
         <v>1</v>
       </c>
       <c r="H23" s="46">
-        <v>0</v>
+        <f t="shared" ref="H23:H39" si="28">SUM(B23+D23+F23)</f>
+        <v>2</v>
       </c>
       <c r="I23" s="46">
-        <v>0</v>
+        <f t="shared" ref="I23:I39" si="29">SUM(C23+E23+G23)</f>
+        <v>3</v>
       </c>
       <c r="J23" s="39">
         <v>3</v>
@@ -3130,10 +3129,12 @@
         <v>2</v>
       </c>
       <c r="P23" s="46">
-        <v>0</v>
+        <f t="shared" ref="P23:P39" si="30">SUM(J23+L23+N23)</f>
+        <v>4</v>
       </c>
       <c r="Q23" s="46">
-        <v>0</v>
+        <f t="shared" ref="Q23:Q39" si="31">SUM(K23+M23+O23)</f>
+        <v>8</v>
       </c>
       <c r="R23" s="48">
         <v>0</v>
@@ -3151,23 +3152,25 @@
         <v>0</v>
       </c>
       <c r="W23" s="48">
-        <f t="shared" ref="W23" si="28">SUM(G23+O23)</f>
+        <f t="shared" ref="W23" si="32">SUM(G23+O23)</f>
         <v>3</v>
       </c>
       <c r="X23" s="46">
+        <f t="shared" ref="X23:X39" si="33">SUM(R23+T23+V23)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="55">
+        <f t="shared" ref="Y23:Y39" si="34">SUM(S23+U23+W23)</f>
+        <v>3</v>
+      </c>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="54">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="56">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="19.5" customHeight="1">
@@ -3193,11 +3196,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I24" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J24" s="39">
@@ -3219,50 +3222,50 @@
         <v>1</v>
       </c>
       <c r="P24" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="Q24" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="R24" s="48">
-        <f t="shared" ref="R24:W24" si="29">SUM(B24+J24)</f>
+        <f t="shared" ref="R24:W24" si="35">SUM(B24+J24)</f>
         <v>3</v>
       </c>
       <c r="S24" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="T24" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="U24" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="V24" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="W24" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="X24" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="Y24" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="AA24" s="55">
+      <c r="AA24" s="54">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="AC24" s="56">
+      <c r="AC24" s="55">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
@@ -3290,11 +3293,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I25" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J25" s="39">
@@ -3316,50 +3319,50 @@
         <v>0</v>
       </c>
       <c r="P25" s="46">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Q25" s="46">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="R25" s="48">
-        <f t="shared" ref="R25:W25" si="30">SUM(B25+J25)</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="48">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="48">
         <f t="shared" si="30"/>
         <v>3</v>
       </c>
+      <c r="Q25" s="46">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="R25" s="48">
+        <f t="shared" ref="R25:W25" si="36">SUM(B25+J25)</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="48">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="48">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
       <c r="U25" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="V25" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W25" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X25" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="Y25" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="AA25" s="55">
+      <c r="AA25" s="54">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AC25" s="56">
+      <c r="AC25" s="55">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -3387,11 +3390,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I26" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J26" s="39">
@@ -3413,50 +3416,50 @@
         <v>0</v>
       </c>
       <c r="P26" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q26" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R26" s="48">
-        <f t="shared" ref="R26:W26" si="31">SUM(B26+J26)</f>
+        <f t="shared" ref="R26:W26" si="37">SUM(B26+J26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T26" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U26" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V26" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W26" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X26" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y26" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="55">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="56">
+      <c r="AC26" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3484,11 +3487,11 @@
         <v>1</v>
       </c>
       <c r="H27" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I27" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J27" s="39">
@@ -3510,50 +3513,50 @@
         <v>0</v>
       </c>
       <c r="P27" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Q27" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="R27" s="48">
-        <f t="shared" ref="R27:W27" si="32">SUM(B27+J27)</f>
+        <f t="shared" ref="R27:W27" si="38">SUM(B27+J27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="T27" s="48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="U27" s="48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="V27" s="48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W27" s="48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="X27" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="Y27" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="AA27" s="55">
+      <c r="AA27" s="54">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AC27" s="56">
+      <c r="AC27" s="55">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -3581,9 +3584,11 @@
         <v>0</v>
       </c>
       <c r="H28" s="46">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I28" s="46">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J28" s="39">
@@ -3605,10 +3610,11 @@
         <v>0</v>
       </c>
       <c r="P28" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q28" s="46">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R28" s="48">
@@ -3630,17 +3636,18 @@
         <v>0</v>
       </c>
       <c r="X28" s="46">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y28" s="46">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="55">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="56">
+      <c r="AC28" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3668,11 +3675,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="I29" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="J29" s="39">
@@ -3694,50 +3701,50 @@
         <v>1</v>
       </c>
       <c r="P29" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="Q29" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="R29" s="48">
-        <f t="shared" ref="R29:W29" si="33">SUM(B29+J29)</f>
+        <f t="shared" ref="R29:W29" si="39">SUM(B29+J29)</f>
         <v>1</v>
       </c>
       <c r="S29" s="48">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="T29" s="48">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="U29" s="48">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="V29" s="48">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="W29" s="48">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="46">
         <f t="shared" si="33"/>
-        <v>4</v>
-      </c>
-      <c r="T29" s="48">
-        <f t="shared" si="33"/>
-        <v>6</v>
-      </c>
-      <c r="U29" s="48">
-        <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-      <c r="V29" s="48">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="W29" s="48">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="46">
-        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="Y29" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
-      <c r="AA29" s="55">
+      <c r="AA29" s="54">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="AC29" s="56">
+      <c r="AC29" s="55">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -3765,11 +3772,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I30" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J30" s="39">
@@ -3791,50 +3798,50 @@
         <v>1</v>
       </c>
       <c r="P30" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="Q30" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="R30" s="48">
-        <f t="shared" ref="R30:W30" si="34">SUM(B30+J30)</f>
+        <f t="shared" ref="R30:W30" si="40">SUM(B30+J30)</f>
         <v>1</v>
       </c>
       <c r="S30" s="48">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="T30" s="48">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="U30" s="48">
+        <f t="shared" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="V30" s="48">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="48">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="X30" s="46">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="Y30" s="46">
         <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="T30" s="48">
-        <f t="shared" si="34"/>
-        <v>4</v>
-      </c>
-      <c r="U30" s="48">
-        <f t="shared" si="34"/>
-        <v>8</v>
-      </c>
-      <c r="V30" s="48">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="48">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="X30" s="46">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="Y30" s="46">
-        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="AA30" s="55">
+      <c r="AA30" s="54">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="AC30" s="56">
+      <c r="AC30" s="55">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
@@ -3862,11 +3869,11 @@
         <v>1</v>
       </c>
       <c r="H31" s="46">
-        <f t="shared" ref="H31" si="35">SUM(B31+D31+F31)</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="I31" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J31" s="39">
@@ -3888,50 +3895,50 @@
         <v>0</v>
       </c>
       <c r="P31" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="Q31" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="R31" s="48">
-        <f t="shared" ref="R31:W31" si="36">SUM(B31+J31)</f>
+        <f t="shared" ref="R31:W31" si="41">SUM(B31+J31)</f>
         <v>5</v>
       </c>
       <c r="S31" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="T31" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="U31" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="V31" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="W31" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="X31" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="Y31" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="AA31" s="55">
+      <c r="AA31" s="54">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="AC31" s="56">
+      <c r="AC31" s="55">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -3959,10 +3966,12 @@
         <v>0</v>
       </c>
       <c r="H32" s="46">
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
       <c r="I32" s="46">
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="J32" s="39">
         <v>1</v>
@@ -3983,52 +3992,52 @@
         <v>1</v>
       </c>
       <c r="P32" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="Q32" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="R32" s="48">
-        <f t="shared" ref="R32:W32" si="37">SUM(B32+J32)</f>
+        <f t="shared" ref="R32:W32" si="42">SUM(B32+J32)</f>
         <v>1</v>
       </c>
       <c r="S32" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="T32" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
       <c r="U32" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="V32" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="W32" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="X32" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="Y32" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="AA32" s="55">
+      <c r="AA32" s="54">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="AC32" s="56">
+      <c r="AC32" s="55">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="19.5" customHeight="1">
@@ -4054,11 +4063,11 @@
         <v>1</v>
       </c>
       <c r="H33" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="I33" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="J33" s="39">
@@ -4080,50 +4089,50 @@
         <v>1</v>
       </c>
       <c r="P33" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="Q33" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="R33" s="48">
-        <f t="shared" ref="R33:W33" si="38">SUM(B33+J33)</f>
+        <f t="shared" ref="R33:W33" si="43">SUM(B33+J33)</f>
         <v>2</v>
       </c>
       <c r="S33" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="T33" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="U33" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="V33" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="W33" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="X33" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="Y33" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
-      <c r="AA33" s="55">
+      <c r="AA33" s="54">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="AC33" s="56">
+      <c r="AC33" s="55">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -4151,11 +4160,11 @@
         <v>1</v>
       </c>
       <c r="H34" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I34" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J34" s="39">
@@ -4177,27 +4186,27 @@
         <v>0</v>
       </c>
       <c r="P34" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="Q34" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="R34" s="48">
-        <f t="shared" ref="R34:W34" si="39">SUM(B34+J34)</f>
+        <f t="shared" ref="R34:W34" si="44">SUM(B34+J34)</f>
         <v>1</v>
       </c>
       <c r="S34" s="48">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="T34" s="48">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="U34" s="48">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="V34" s="48">
@@ -4205,22 +4214,22 @@
         <v>1</v>
       </c>
       <c r="W34" s="48">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="X34" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="Y34" s="46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
-      <c r="AA34" s="55">
+      <c r="AA34" s="54">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AC34" s="56">
+      <c r="AC34" s="55">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
@@ -4248,11 +4257,11 @@
         <v>0</v>
       </c>
       <c r="H35" s="46">
-        <f t="shared" ref="H35:H39" si="40">SUM(B35+D35+F35)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I35" s="46">
-        <f t="shared" ref="I35:I39" si="41">SUM(C35+E35+G35)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J35" s="39">
@@ -4274,50 +4283,50 @@
         <v>0</v>
       </c>
       <c r="P35" s="46">
-        <f t="shared" ref="P35:P39" si="42">SUM(J35+L35+N35)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q35" s="46">
-        <f t="shared" ref="Q35:Q39" si="43">SUM(K35+M35+O35)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R35" s="48">
-        <f t="shared" ref="R35:R39" si="44">SUM(B35+J35)</f>
+        <f t="shared" ref="R35:R39" si="45">SUM(B35+J35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="48">
-        <f t="shared" ref="S35:S39" si="45">SUM(C35+K35)</f>
+        <f t="shared" ref="S35:S39" si="46">SUM(C35+K35)</f>
         <v>0</v>
       </c>
       <c r="T35" s="48">
-        <f t="shared" ref="T35:T39" si="46">SUM(D35+L35)</f>
+        <f t="shared" ref="T35:T39" si="47">SUM(D35+L35)</f>
         <v>0</v>
       </c>
       <c r="U35" s="48">
-        <f t="shared" ref="U35:U39" si="47">SUM(E35+M35)</f>
+        <f t="shared" ref="U35:U39" si="48">SUM(E35+M35)</f>
         <v>0</v>
       </c>
       <c r="V35" s="48">
-        <f t="shared" ref="V35:V39" si="48">SUM(F35+N35)</f>
+        <f t="shared" ref="V35:V39" si="49">SUM(F35+N35)</f>
         <v>0</v>
       </c>
       <c r="W35" s="48">
-        <f t="shared" ref="W35:W39" si="49">SUM(G35+O35)</f>
+        <f t="shared" ref="W35:W39" si="50">SUM(G35+O35)</f>
         <v>0</v>
       </c>
       <c r="X35" s="46">
-        <f t="shared" ref="X35:X37" si="50">SUM(R35+T35+V35)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y35" s="46">
-        <f t="shared" ref="Y35:Y37" si="51">SUM(S35+U35+W35)</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="55">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="56">
+      <c r="AC35" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4345,11 +4354,11 @@
         <v>0</v>
       </c>
       <c r="H36" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="I36" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J36" s="39">
@@ -4371,50 +4380,50 @@
         <v>1</v>
       </c>
       <c r="P36" s="46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="Q36" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="R36" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="S36" s="48">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="T36" s="48">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="U36" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="V36" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="W36" s="48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="X36" s="46">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="Y36" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
-      <c r="AA36" s="55">
+      <c r="AA36" s="54">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="AC36" s="56">
+      <c r="AC36" s="55">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -4442,11 +4451,11 @@
         <v>1</v>
       </c>
       <c r="H37" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I37" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J37" s="39">
@@ -4468,51 +4477,51 @@
         <v>0</v>
       </c>
       <c r="P37" s="46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="Q37" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="R37" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="S37" s="48">
-        <f t="shared" si="45"/>
-        <v>4</v>
-      </c>
-      <c r="T37" s="48">
         <f t="shared" si="46"/>
         <v>4</v>
       </c>
-      <c r="U37" s="48">
+      <c r="T37" s="48">
         <f t="shared" si="47"/>
         <v>4</v>
       </c>
+      <c r="U37" s="48">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
       <c r="V37" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="W37" s="48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="X37" s="46">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="Y37" s="46">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="Z37" s="50"/>
-      <c r="AA37" s="55">
+      <c r="AA37" s="54">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="AC37" s="56">
+      <c r="AC37" s="55">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
@@ -4540,11 +4549,11 @@
         <v>0</v>
       </c>
       <c r="H38" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="I38" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J38" s="39">
@@ -4566,51 +4575,51 @@
         <v>1</v>
       </c>
       <c r="P38" s="46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="Q38" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="R38" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="S38" s="48">
-        <f t="shared" si="45"/>
-        <v>4</v>
-      </c>
-      <c r="T38" s="48">
         <f t="shared" si="46"/>
         <v>4</v>
       </c>
+      <c r="T38" s="48">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
       <c r="U38" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="V38" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="W38" s="48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="X38" s="46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
-      <c r="Y38" s="51">
-        <f t="shared" si="14"/>
+      <c r="Y38" s="46">
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
-      <c r="AA38" s="55">
+      <c r="AA38" s="54">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="AB38" s="37"/>
-      <c r="AC38" s="56">
+      <c r="AC38" s="55">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -4639,11 +4648,11 @@
         <v>0</v>
       </c>
       <c r="H39" s="46">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="I39" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="J39" s="39">
@@ -4665,50 +4674,50 @@
         <v>1</v>
       </c>
       <c r="P39" s="46">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="Q39" s="46">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="R39" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="S39" s="48">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="T39" s="48">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="U39" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="V39" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W39" s="48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="X39" s="46">
-        <f t="shared" ref="X39" si="52">SUM(R39+T39+V39)</f>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
-      <c r="Y39" s="51">
-        <f t="shared" ref="Y39" si="53">SUM(S39+U39+W39)</f>
+      <c r="Y39" s="46">
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
-      <c r="AA39" s="55">
+      <c r="AA39" s="54">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="AC39" s="56">
+      <c r="AC39" s="55">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
@@ -4750,27 +4759,27 @@
         <v>62</v>
       </c>
       <c r="J40" s="43">
-        <f t="shared" ref="J40:O40" si="54">SUM(J9:J39)</f>
+        <f t="shared" ref="J40:O40" si="51">SUM(J9:J39)</f>
         <v>30</v>
       </c>
       <c r="K40" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>42</v>
       </c>
       <c r="L40" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>65</v>
       </c>
       <c r="M40" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>67</v>
       </c>
       <c r="N40" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>31</v>
       </c>
       <c r="O40" s="43">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>15</v>
       </c>
       <c r="P40" s="46">
@@ -4782,27 +4791,27 @@
         <v>124</v>
       </c>
       <c r="R40" s="46">
-        <f t="shared" ref="R40:W40" si="55">SUM(B40+J40)</f>
+        <f t="shared" ref="R40:W40" si="52">SUM(B40+J40)</f>
         <v>51</v>
       </c>
       <c r="S40" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>62</v>
       </c>
       <c r="T40" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>99</v>
       </c>
       <c r="U40" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>96</v>
       </c>
       <c r="V40" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>41</v>
       </c>
       <c r="W40" s="46">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>28</v>
       </c>
       <c r="X40" s="46">
@@ -4813,13 +4822,13 @@
         <f>SUM(I40+Q40)</f>
         <v>186</v>
       </c>
-      <c r="AA40" s="61">
+      <c r="AA40" s="60">
         <f>SUM(AA9:AA39)</f>
-        <v>360</v>
-      </c>
-      <c r="AC40" s="60">
+        <v>363</v>
+      </c>
+      <c r="AC40" s="59">
         <f>SUM(AC9:AC39)</f>
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:32" s="33" customFormat="1" ht="19.5" customHeight="1">
@@ -4848,81 +4857,81 @@
       <c r="W41"/>
       <c r="X41"/>
       <c r="Y41"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="53"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
     </row>
     <row r="42" spans="1:32" ht="14.25" customHeight="1">
       <c r="A42" s="25"/>
-      <c r="AB42" s="93" t="s">
+      <c r="AB42" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="57">
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="56">
         <f>SUM(D40+F40+L40+N40)</f>
         <v>140</v>
       </c>
-      <c r="AE42" s="90">
+      <c r="AE42" s="68">
         <f>SUM(AD42+AD43+AD44)</f>
         <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="14.25" customHeight="1">
       <c r="A43" s="25"/>
-      <c r="AB43" s="93" t="s">
+      <c r="AB43" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="AC43" s="94"/>
-      <c r="AD43" s="57">
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="56">
         <f>SUM(E40+G40+M40+O40)</f>
         <v>124</v>
       </c>
-      <c r="AE43" s="90"/>
+      <c r="AE43" s="68"/>
     </row>
     <row r="44" spans="1:32" ht="14.25" customHeight="1">
       <c r="A44" s="25"/>
-      <c r="AB44" s="93" t="s">
+      <c r="AB44" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="AC44" s="94"/>
-      <c r="AD44" s="57">
+      <c r="AC44" s="72"/>
+      <c r="AD44" s="56">
         <f>SUM(B40+C40+J40+K40)</f>
         <v>113</v>
       </c>
-      <c r="AE44" s="90"/>
+      <c r="AE44" s="68"/>
     </row>
     <row r="45" spans="1:32" ht="14.25" customHeight="1">
       <c r="P45" s="6"/>
-      <c r="AB45" s="91" t="s">
+      <c r="AB45" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="AC45" s="90"/>
-      <c r="AD45" s="57">
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="56">
         <f>SUM(H40+I40)</f>
         <v>127</v>
       </c>
-      <c r="AE45" s="90">
+      <c r="AE45" s="68">
         <f>SUM(H40+I40+P40+Q40)</f>
         <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="14.25" customHeight="1">
-      <c r="AB46" s="91" t="s">
+      <c r="AB46" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AC46" s="90"/>
-      <c r="AD46" s="57">
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="56">
         <f>SUM(P40+Q40)</f>
         <v>250</v>
       </c>
-      <c r="AE46" s="90"/>
+      <c r="AE46" s="68"/>
     </row>
     <row r="47" spans="1:32" ht="14.25" customHeight="1">
-      <c r="AB47" s="92"/>
-      <c r="AC47" s="92"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
+      <c r="AB47" s="70"/>
+      <c r="AC47" s="70"/>
+      <c r="AD47" s="53"/>
+      <c r="AE47" s="53"/>
     </row>
     <row r="48" spans="1:32" ht="14.25" customHeight="1">
       <c r="AB48" s="38"/>
@@ -5884,20 +5893,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AE42:AE44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AE45:AE46"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A5:Y5"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="J6:Q6"/>
@@ -5912,6 +5907,20 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="AE42:AE44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AE45:AE46"/>
   </mergeCells>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -5933,68 +5942,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
     </row>
     <row r="3" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
     </row>
     <row r="4" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
     </row>
     <row r="5" spans="1:26" ht="92.25" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -6133,42 +6142,42 @@
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -7190,52 +7199,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
     </row>
     <row r="5" spans="1:26" ht="41.25" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -7326,7 +7335,7 @@
       <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="103">
+      <c r="A7" s="102">
         <v>2</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -7370,7 +7379,7 @@
       <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="104"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
@@ -7406,7 +7415,7 @@
       <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="103">
+      <c r="A9" s="102">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -7450,7 +7459,7 @@
       <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="104"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="22" t="s">
         <v>44</v>
       </c>
@@ -7486,7 +7495,7 @@
       <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="103">
+      <c r="A11" s="102">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7530,7 +7539,7 @@
       <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="104"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="22" t="s">
         <v>44</v>
       </c>
@@ -7566,7 +7575,7 @@
       <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A13" s="103">
+      <c r="A13" s="102">
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -7610,7 +7619,7 @@
       <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="104"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="22" t="s">
         <v>44</v>
       </c>
@@ -9128,4109 +9137,4081 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN71"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" style="64" customWidth="1"/>
-    <col min="4" max="4" width="4" style="64" customWidth="1"/>
-    <col min="5" max="6" width="3.88671875" style="64" customWidth="1"/>
-    <col min="7" max="11" width="4" style="64" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="64" customWidth="1"/>
-    <col min="13" max="33" width="4" style="64" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" style="63" customWidth="1"/>
+    <col min="4" max="4" width="4" style="63" customWidth="1"/>
+    <col min="5" max="6" width="3.88671875" style="63" customWidth="1"/>
+    <col min="7" max="11" width="4" style="63" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="63" customWidth="1"/>
+    <col min="13" max="33" width="4" style="63" customWidth="1"/>
     <col min="34" max="16384" width="9.109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="115"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="118"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="115"/>
+      <c r="A3" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="108"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="58">
-        <v>1</v>
-      </c>
-      <c r="D4" s="58">
-        <v>2</v>
-      </c>
-      <c r="E4" s="58">
+      <c r="C4" s="57">
+        <v>1</v>
+      </c>
+      <c r="D4" s="57">
+        <v>2</v>
+      </c>
+      <c r="E4" s="57">
         <v>3</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="57">
         <v>4</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="57">
         <v>5</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="57">
         <v>6</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="57">
         <v>7</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="57">
         <v>8</v>
       </c>
-      <c r="K4" s="58">
+      <c r="K4" s="57">
         <v>9</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="57">
         <v>10</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="57">
         <v>11</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="57">
         <v>12</v>
       </c>
-      <c r="O4" s="58">
+      <c r="O4" s="57">
         <v>13</v>
       </c>
-      <c r="P4" s="58">
+      <c r="P4" s="57">
         <v>14</v>
       </c>
-      <c r="Q4" s="58">
+      <c r="Q4" s="57">
         <v>15</v>
       </c>
-      <c r="R4" s="58">
+      <c r="R4" s="57">
         <v>16</v>
       </c>
-      <c r="S4" s="58">
+      <c r="S4" s="57">
         <v>17</v>
       </c>
-      <c r="T4" s="58">
+      <c r="T4" s="57">
         <v>18</v>
       </c>
-      <c r="U4" s="58">
+      <c r="U4" s="57">
         <v>19</v>
       </c>
-      <c r="V4" s="58">
+      <c r="V4" s="57">
         <v>20</v>
       </c>
-      <c r="W4" s="58">
+      <c r="W4" s="57">
         <v>21</v>
       </c>
-      <c r="X4" s="58">
+      <c r="X4" s="57">
         <v>22</v>
       </c>
-      <c r="Y4" s="58">
+      <c r="Y4" s="57">
         <v>23</v>
       </c>
-      <c r="Z4" s="58">
+      <c r="Z4" s="57">
         <v>24</v>
       </c>
-      <c r="AA4" s="58">
+      <c r="AA4" s="57">
         <v>25</v>
       </c>
-      <c r="AB4" s="58">
+      <c r="AB4" s="57">
         <v>26</v>
       </c>
-      <c r="AC4" s="58">
+      <c r="AC4" s="57">
         <v>27</v>
       </c>
-      <c r="AD4" s="58">
+      <c r="AD4" s="57">
         <v>28</v>
       </c>
-      <c r="AE4" s="58">
+      <c r="AE4" s="57">
         <v>29</v>
       </c>
-      <c r="AF4" s="58">
+      <c r="AF4" s="57">
         <v>30</v>
       </c>
-      <c r="AG4" s="65">
+      <c r="AG4" s="64">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="18">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="111"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="114"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="62">
-        <v>1</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="61">
+        <v>1</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="62">
-        <v>1</v>
-      </c>
-      <c r="D6" s="62">
-        <v>1</v>
-      </c>
-      <c r="E6" s="62">
-        <v>1</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62">
-        <v>1</v>
-      </c>
-      <c r="J6" s="62">
-        <v>1</v>
-      </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62">
-        <v>1</v>
-      </c>
-      <c r="M6" s="62">
-        <v>1</v>
-      </c>
-      <c r="N6" s="62">
-        <v>1</v>
-      </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62">
-        <v>1</v>
-      </c>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62">
-        <v>1</v>
-      </c>
-      <c r="U6" s="62">
-        <v>1</v>
-      </c>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62">
-        <v>1</v>
-      </c>
-      <c r="X6" s="62">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="62">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="62">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="62">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="65"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61">
+        <v>1</v>
+      </c>
+      <c r="F6" s="61">
+        <v>1</v>
+      </c>
+      <c r="G6" s="61">
+        <v>1</v>
+      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61">
+        <v>1</v>
+      </c>
+      <c r="J6" s="61">
+        <v>1</v>
+      </c>
+      <c r="K6" s="61">
+        <v>1</v>
+      </c>
+      <c r="L6" s="61">
+        <v>1</v>
+      </c>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="61">
+        <v>1</v>
+      </c>
+      <c r="R6" s="61">
+        <v>1</v>
+      </c>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61">
+        <v>1</v>
+      </c>
+      <c r="X6" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="61">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="61">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="61">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="61">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="64"/>
       <c r="AH6" s="35">
         <f>SUM(C6:AG6)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="58">
-        <v>1</v>
-      </c>
-      <c r="D7" s="58">
+      <c r="B7" s="115"/>
+      <c r="C7" s="57">
+        <v>0</v>
+      </c>
+      <c r="D7" s="57">
         <f t="shared" ref="D7:AF7" si="0">SUM(D6)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="58">
+        <v>0</v>
+      </c>
+      <c r="E7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="58">
+        <v>1</v>
+      </c>
+      <c r="G7" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="58">
+        <v>1</v>
+      </c>
+      <c r="H7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="58">
+        <v>1</v>
+      </c>
+      <c r="L7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="58">
+      <c r="M7" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="58">
+        <v>0</v>
+      </c>
+      <c r="N7" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="58">
+        <v>0</v>
+      </c>
+      <c r="O7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="58">
+      <c r="P7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="58">
+      <c r="Q7" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="58">
+        <v>1</v>
+      </c>
+      <c r="R7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S7" s="58">
+      <c r="S7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="58">
+      <c r="T7" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U7" s="58">
+        <v>0</v>
+      </c>
+      <c r="U7" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="58">
+        <v>0</v>
+      </c>
+      <c r="V7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="58">
+      <c r="W7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X7" s="58">
+      <c r="X7" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y7" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z7" s="58">
+      <c r="Z7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA7" s="58">
+      <c r="AA7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB7" s="58">
+      <c r="AB7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="58">
+      <c r="AC7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="58">
+      <c r="AD7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE7" s="58">
+      <c r="AE7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="58">
+      <c r="AF7" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="65">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="18">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="65"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="64"/>
       <c r="AH8" s="35">
         <f t="shared" ref="AH8:AH67" si="1">SUM(C8:AG8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="58">
-        <v>2</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="57">
+        <v>2</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
       <c r="AH9" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="58">
+      <c r="A10" s="57">
         <v>3</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58">
-        <v>2</v>
-      </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58">
-        <v>2</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62">
-        <v>2</v>
-      </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62">
-        <v>2</v>
-      </c>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62">
-        <v>1</v>
-      </c>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61">
+        <v>2</v>
+      </c>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61">
+        <v>2</v>
+      </c>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
       <c r="AH10" s="35">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="58">
+      <c r="A11" s="57">
         <v>4</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
       <c r="AH11" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="58">
+      <c r="A12" s="57">
         <v>5</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
       <c r="AH12" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="58">
+      <c r="B13" s="115"/>
+      <c r="C13" s="57">
         <f>SUM(C9:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <f t="shared" ref="D13:AF13" si="2">SUM(D9:D12)</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="58">
+        <v>0</v>
+      </c>
+      <c r="E13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="57">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H13" s="58">
+        <v>0</v>
+      </c>
+      <c r="H13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="57">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K13" s="58">
+        <v>0</v>
+      </c>
+      <c r="K13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="58">
+      <c r="M13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="58">
+      <c r="N13" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="58">
+        <v>2</v>
+      </c>
+      <c r="O13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="58">
+      <c r="P13" s="57">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q13" s="58">
+      <c r="Q13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="58">
+      <c r="R13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S13" s="58">
+      <c r="S13" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="58">
+        <v>2</v>
+      </c>
+      <c r="T13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U13" s="58">
+      <c r="U13" s="57">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="V13" s="58">
+        <v>0</v>
+      </c>
+      <c r="V13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="58">
+      <c r="W13" s="57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="58">
+        <v>0</v>
+      </c>
+      <c r="X13" s="57">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="58">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="57">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Z13" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="58">
+      <c r="AA13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="58">
+      <c r="AB13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="58">
+      <c r="AC13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="58">
+      <c r="AD13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="58">
+      <c r="AE13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="58">
+      <c r="AF13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="58">
+      <c r="AG13" s="57">
         <f t="shared" ref="AG13" si="3">SUM(AG9:AG12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="18">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="111"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="114"/>
       <c r="AH14" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="58">
+      <c r="A15" s="57">
         <v>6</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
       <c r="AH15" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="58">
+      <c r="A16" s="57">
         <v>7</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
       <c r="AH16" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="58">
+      <c r="A17" s="57">
         <v>8</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
       <c r="AH17" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="58">
+      <c r="A18" s="57">
         <v>9</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58">
-        <v>2</v>
-      </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="62">
-        <v>2</v>
-      </c>
-      <c r="J18" s="62">
-        <v>2</v>
-      </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62">
-        <v>2</v>
-      </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62">
-        <v>2</v>
-      </c>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62">
-        <v>2</v>
-      </c>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62">
-        <v>2</v>
-      </c>
-      <c r="X18" s="62">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57">
+        <v>2</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61">
+        <v>2</v>
+      </c>
+      <c r="R18" s="61">
+        <v>2</v>
+      </c>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="61"/>
       <c r="AH18" s="35">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="58">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
       <c r="AH19" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="58">
+      <c r="A20" s="57">
         <v>11</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
       <c r="AH20" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="58">
+      <c r="B21" s="115"/>
+      <c r="C21" s="57">
         <f>SUM(C18:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="57">
         <f t="shared" ref="D21:AG21" si="4">SUM(D18:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="57">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="57">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J21" s="58">
+        <v>0</v>
+      </c>
+      <c r="J21" s="57">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="K21" s="58">
+        <v>0</v>
+      </c>
+      <c r="K21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="57">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M21" s="58">
+        <v>0</v>
+      </c>
+      <c r="M21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O21" s="58">
+      <c r="O21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="58">
+      <c r="P21" s="57">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Q21" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="58">
+        <v>2</v>
+      </c>
+      <c r="R21" s="57">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="S21" s="58">
+      <c r="S21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T21" s="58">
+      <c r="T21" s="57">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="U21" s="58">
+        <v>0</v>
+      </c>
+      <c r="U21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V21" s="58">
+      <c r="V21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21" s="58">
+      <c r="W21" s="57">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X21" s="58">
+        <v>0</v>
+      </c>
+      <c r="X21" s="57">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y21" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="58">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="58">
+      <c r="AA21" s="57">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB21" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="58">
+      <c r="AC21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="58">
+      <c r="AD21" s="57">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AE21" s="58">
+      <c r="AE21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="58">
+      <c r="AF21" s="57">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="58">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="18">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="111"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="114"/>
       <c r="AH22" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="58">
+      <c r="A23" s="57">
         <v>12</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="58">
-        <v>1</v>
-      </c>
-      <c r="D23" s="58">
-        <v>1</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62">
-        <v>2</v>
-      </c>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62">
-        <v>1</v>
-      </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62">
-        <v>1</v>
-      </c>
-      <c r="X23" s="62">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62">
-        <v>2</v>
-      </c>
-      <c r="AA23" s="62">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="61">
+        <v>2</v>
+      </c>
+      <c r="J23" s="61">
+        <v>1</v>
+      </c>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61">
+        <v>2</v>
+      </c>
+      <c r="M23" s="61">
+        <v>1</v>
+      </c>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61">
+        <v>1</v>
+      </c>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="61">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61">
+        <v>1</v>
+      </c>
       <c r="AH23" s="35">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="58">
+      <c r="A24" s="57">
         <v>13</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
       <c r="AH24" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="58">
+      <c r="A25" s="57">
         <v>14</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
       <c r="AH25" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="58">
+      <c r="B26" s="115"/>
+      <c r="C26" s="57">
         <f>SUM(C23:C25)</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="58">
+        <v>0</v>
+      </c>
+      <c r="D26" s="57">
         <f t="shared" ref="D26:AF26" si="5">SUM(D23:D25)</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="58">
+        <v>0</v>
+      </c>
+      <c r="E26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="58">
+        <v>2</v>
+      </c>
+      <c r="J26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="58">
+        <v>1</v>
+      </c>
+      <c r="K26" s="57">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L26" s="58">
+        <v>0</v>
+      </c>
+      <c r="L26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="58">
+        <v>2</v>
+      </c>
+      <c r="M26" s="57">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N26" s="58">
+      <c r="N26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O26" s="58">
+      <c r="O26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P26" s="58">
+      <c r="P26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="58">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R26" s="58">
+      <c r="R26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="58">
+        <v>1</v>
+      </c>
+      <c r="S26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T26" s="58">
+      <c r="T26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U26" s="58">
+      <c r="U26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V26" s="58">
+      <c r="V26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W26" s="58">
+      <c r="W26" s="57">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X26" s="58">
+        <v>0</v>
+      </c>
+      <c r="X26" s="57">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Y26" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="57">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AA26" s="58">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="57">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AB26" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="58">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="58">
+      <c r="AD26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="58">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="58">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="58">
+      <c r="AG26" s="57">
         <f t="shared" ref="AG26" si="6">SUM(AG23:AG25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="18">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="67"/>
-      <c r="AG27" s="65"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="64"/>
       <c r="AH27" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="58">
+      <c r="A28" s="57">
         <v>15</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="62"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
       <c r="AH28" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="58">
+      <c r="A29" s="57">
         <v>16</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="58">
-        <v>1</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58">
-        <v>1</v>
-      </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62">
-        <v>1</v>
-      </c>
-      <c r="L29" s="62">
-        <v>1</v>
-      </c>
-      <c r="M29" s="62">
-        <v>2</v>
-      </c>
-      <c r="N29" s="62">
-        <v>1</v>
-      </c>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62">
-        <v>1</v>
-      </c>
-      <c r="S29" s="62">
-        <v>2</v>
-      </c>
-      <c r="T29" s="62">
-        <v>1</v>
-      </c>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62">
-        <v>1</v>
-      </c>
-      <c r="X29" s="62">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="62">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57">
+        <v>1</v>
+      </c>
+      <c r="F29" s="57">
+        <v>1</v>
+      </c>
+      <c r="G29" s="57">
+        <v>1</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61">
+        <v>2</v>
+      </c>
+      <c r="K29" s="61">
+        <v>1</v>
+      </c>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61">
+        <v>1</v>
+      </c>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61">
+        <v>1</v>
+      </c>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61">
+        <v>2</v>
+      </c>
       <c r="AH29" s="35">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="57">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="58">
-        <v>17</v>
-      </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="61"/>
+      <c r="AG30" s="61"/>
       <c r="AH30" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="58">
+      <c r="A31" s="57">
         <v>18</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="61"/>
       <c r="AH31" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="58">
+      <c r="B32" s="115"/>
+      <c r="C32" s="57">
         <f>SUM(C28:C31)</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="58">
+        <v>0</v>
+      </c>
+      <c r="D32" s="57">
         <f t="shared" ref="D32:AF32" si="7">SUM(D28:D31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="57">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="57">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="58">
+        <v>1</v>
+      </c>
+      <c r="G32" s="57">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="58">
+        <v>1</v>
+      </c>
+      <c r="H32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I32" s="58">
+      <c r="I32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J32" s="58">
+      <c r="J32" s="57">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="58">
+        <v>2</v>
+      </c>
+      <c r="K32" s="57">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L32" s="58">
+      <c r="L32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="58">
+        <v>0</v>
+      </c>
+      <c r="M32" s="57">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N32" s="58">
+        <v>1</v>
+      </c>
+      <c r="N32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O32" s="58">
+        <v>0</v>
+      </c>
+      <c r="O32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P32" s="58">
+      <c r="P32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R32" s="58">
+      <c r="R32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S32" s="58">
+        <v>0</v>
+      </c>
+      <c r="S32" s="57">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="T32" s="58">
+        <v>0</v>
+      </c>
+      <c r="T32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="U32" s="58">
+        <v>0</v>
+      </c>
+      <c r="U32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V32" s="58">
+      <c r="V32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W32" s="58">
+      <c r="W32" s="57">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="X32" s="58">
+      <c r="X32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Y32" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="58">
+      <c r="Z32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="58">
+      <c r="AA32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AB32" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AC32" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="58">
+      <c r="AD32" s="57">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE32" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="57">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="58">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="58">
+      <c r="AG32" s="57">
         <f t="shared" ref="AG32" si="8">SUM(AG28:AG31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="18">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="65"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="64"/>
       <c r="AH33" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:34">
-      <c r="A34" s="58">
+      <c r="A34" s="57">
         <v>19</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="58">
-        <v>2</v>
-      </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62">
-        <v>2</v>
-      </c>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62">
-        <v>1</v>
-      </c>
-      <c r="S34" s="62">
-        <v>2</v>
-      </c>
-      <c r="T34" s="62">
-        <v>2</v>
-      </c>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62">
-        <v>2</v>
-      </c>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57">
+        <v>1</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="61">
+        <v>2</v>
+      </c>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61">
+        <v>2</v>
+      </c>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61">
+        <v>2</v>
+      </c>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61">
+        <v>1</v>
+      </c>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="61">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
       <c r="AH34" s="35">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="58">
+      <c r="A35" s="57">
         <v>20</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61"/>
+      <c r="AF35" s="61"/>
+      <c r="AG35" s="61"/>
       <c r="AH35" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="58">
+      <c r="A36" s="57">
         <v>21</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="62"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
       <c r="AH36" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="58">
+      <c r="A37" s="57">
         <v>22</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="62"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="61"/>
+      <c r="AG37" s="61"/>
       <c r="AH37" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="58">
+      <c r="B38" s="115"/>
+      <c r="C38" s="57">
         <f>SUM(C34:C37)</f>
-        <v>2</v>
-      </c>
-      <c r="D38" s="58">
+        <v>0</v>
+      </c>
+      <c r="D38" s="57">
         <f t="shared" ref="D38:AF38" si="9">SUM(D34:D37)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="58">
+      <c r="E38" s="57">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="58">
+        <v>1</v>
+      </c>
+      <c r="F38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H38" s="58">
+      <c r="H38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I38" s="58">
+      <c r="I38" s="57">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="58">
+        <v>2</v>
+      </c>
+      <c r="J38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K38" s="58">
+      <c r="K38" s="57">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="L38" s="58">
+      <c r="L38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M38" s="58">
+      <c r="M38" s="57">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="58">
+        <v>2</v>
+      </c>
+      <c r="N38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O38" s="58">
+      <c r="O38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P38" s="58">
+      <c r="P38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="58">
+      <c r="Q38" s="57">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="58">
+        <v>1</v>
+      </c>
+      <c r="R38" s="57">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S38" s="58">
+        <v>0</v>
+      </c>
+      <c r="S38" s="57">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="T38" s="58">
+        <v>0</v>
+      </c>
+      <c r="T38" s="57">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U38" s="58">
+        <v>0</v>
+      </c>
+      <c r="U38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V38" s="58">
+      <c r="V38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W38" s="58">
+      <c r="W38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X38" s="58">
+      <c r="X38" s="57">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="58">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="58">
+      <c r="Z38" s="57">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="58">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="57">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="58">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="58">
+      <c r="AC38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="58">
+      <c r="AD38" s="57">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AE38" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF38" s="58">
+      <c r="AF38" s="57">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="58">
+      <c r="AG38" s="57">
         <f t="shared" ref="AG38" si="10">SUM(AG34:AG37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="18">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="110"/>
-      <c r="U39" s="110"/>
-      <c r="V39" s="110"/>
-      <c r="W39" s="110"/>
-      <c r="X39" s="110"/>
-      <c r="Y39" s="110"/>
-      <c r="Z39" s="110"/>
-      <c r="AA39" s="110"/>
-      <c r="AB39" s="110"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="110"/>
-      <c r="AE39" s="110"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="111"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="113"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="114"/>
       <c r="AH39" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:34">
-      <c r="A40" s="58">
+      <c r="A40" s="57">
         <v>23</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="65"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="64"/>
       <c r="AH40" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="58">
+      <c r="A41" s="57">
         <v>24</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="62"/>
-      <c r="AE41" s="62"/>
-      <c r="AF41" s="62"/>
-      <c r="AG41" s="65"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="61"/>
+      <c r="V41" s="61"/>
+      <c r="W41" s="61"/>
+      <c r="X41" s="61"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
+      <c r="AE41" s="61"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="64"/>
       <c r="AH41" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="27.6">
-      <c r="A42" s="58">
+      <c r="A42" s="57">
         <v>25</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="62"/>
-      <c r="AG42" s="65"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="64"/>
       <c r="AH42" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:34">
-      <c r="A43" s="58">
+      <c r="A43" s="57">
         <v>26</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="65"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="61"/>
+      <c r="W43" s="61"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="64"/>
       <c r="AH43" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:34">
-      <c r="A44" s="58">
+      <c r="A44" s="57">
         <v>27</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="65"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="64"/>
       <c r="AH44" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:34">
-      <c r="A45" s="58">
+      <c r="A45" s="57">
         <v>28</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="65"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="64"/>
       <c r="AH45" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:34">
-      <c r="A46" s="58">
+      <c r="A46" s="57">
         <v>29</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
-      <c r="W46" s="62"/>
-      <c r="X46" s="62"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="62"/>
-      <c r="AA46" s="62"/>
-      <c r="AB46" s="62"/>
-      <c r="AC46" s="62"/>
-      <c r="AD46" s="62"/>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="62"/>
-      <c r="AG46" s="65"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="64"/>
       <c r="AH46" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:34">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="58">
+      <c r="B47" s="115"/>
+      <c r="C47" s="57">
         <f>SUM(C40:C46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="58">
+      <c r="D47" s="57">
         <f t="shared" ref="D47:AF47" si="11">SUM(D40:D46)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H47" s="58">
+      <c r="H47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J47" s="58">
+      <c r="J47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K47" s="58">
+      <c r="K47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L47" s="58">
+      <c r="L47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M47" s="58">
+      <c r="M47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N47" s="58">
+      <c r="N47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O47" s="58">
+      <c r="O47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P47" s="58">
+      <c r="P47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="58">
+      <c r="Q47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R47" s="58">
+      <c r="R47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S47" s="58">
+      <c r="S47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T47" s="58">
+      <c r="T47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U47" s="58">
+      <c r="U47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V47" s="58">
+      <c r="V47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W47" s="58">
+      <c r="W47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X47" s="58">
+      <c r="X47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="58">
+      <c r="Y47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="58">
+      <c r="Z47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="58">
+      <c r="AA47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="58">
+      <c r="AB47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC47" s="58">
+      <c r="AC47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="58">
+      <c r="AD47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="58">
+      <c r="AE47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="58">
+      <c r="AF47" s="57">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AG47" s="65"/>
+      <c r="AG47" s="64"/>
       <c r="AH47" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="18">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="110"/>
-      <c r="R48" s="110"/>
-      <c r="S48" s="110"/>
-      <c r="T48" s="110"/>
-      <c r="U48" s="110"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="110"/>
-      <c r="X48" s="110"/>
-      <c r="Y48" s="110"/>
-      <c r="Z48" s="110"/>
-      <c r="AA48" s="110"/>
-      <c r="AB48" s="110"/>
-      <c r="AC48" s="110"/>
-      <c r="AD48" s="110"/>
-      <c r="AE48" s="110"/>
-      <c r="AF48" s="110"/>
-      <c r="AG48" s="111"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="113"/>
+      <c r="W48" s="113"/>
+      <c r="X48" s="113"/>
+      <c r="Y48" s="113"/>
+      <c r="Z48" s="113"/>
+      <c r="AA48" s="113"/>
+      <c r="AB48" s="113"/>
+      <c r="AC48" s="113"/>
+      <c r="AD48" s="113"/>
+      <c r="AE48" s="113"/>
+      <c r="AF48" s="113"/>
+      <c r="AG48" s="114"/>
     </row>
     <row r="49" spans="1:34">
-      <c r="A49" s="58">
+      <c r="A49" s="57">
         <v>30</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="62">
-        <v>1</v>
-      </c>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="62"/>
-      <c r="AA49" s="62"/>
-      <c r="AB49" s="62"/>
-      <c r="AC49" s="62"/>
-      <c r="AD49" s="62"/>
-      <c r="AE49" s="62"/>
-      <c r="AF49" s="62"/>
-      <c r="AG49" s="62"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="61"/>
+      <c r="AG49" s="61"/>
       <c r="AH49" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:34">
-      <c r="A50" s="58">
+      <c r="A50" s="57">
         <v>31</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="62">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="62"/>
-      <c r="AB50" s="62"/>
-      <c r="AC50" s="62"/>
-      <c r="AD50" s="62"/>
-      <c r="AE50" s="62"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61">
+        <v>1</v>
+      </c>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
       <c r="AH50" s="35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:34">
-      <c r="A51" s="58">
+      <c r="A51" s="57">
         <v>32</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62">
-        <v>1</v>
-      </c>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="62">
-        <v>2</v>
-      </c>
-      <c r="AC51" s="62"/>
-      <c r="AD51" s="62"/>
-      <c r="AE51" s="62"/>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="61">
+        <v>1</v>
+      </c>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="61"/>
+      <c r="AC51" s="61"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="61"/>
+      <c r="AG51" s="61"/>
       <c r="AH51" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:34">
-      <c r="A52" s="58">
+      <c r="A52" s="57">
         <v>33</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58">
-        <v>1</v>
-      </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="62">
-        <v>1</v>
-      </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="62">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="62"/>
-      <c r="AA52" s="62"/>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
-      <c r="AD52" s="62"/>
-      <c r="AE52" s="62"/>
-      <c r="AF52" s="62"/>
-      <c r="AG52" s="62"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61">
+        <v>1</v>
+      </c>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
       <c r="AH52" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:34">
-      <c r="A53" s="58">
+      <c r="A53" s="57">
         <v>34</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="62">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="62"/>
-      <c r="AB53" s="62"/>
-      <c r="AC53" s="62"/>
-      <c r="AD53" s="62"/>
-      <c r="AE53" s="62"/>
-      <c r="AF53" s="62"/>
-      <c r="AG53" s="62"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57">
+        <v>1</v>
+      </c>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61">
+        <v>1</v>
+      </c>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
       <c r="AH53" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:34">
-      <c r="A54" s="58">
+      <c r="A54" s="57">
         <v>35</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="62"/>
-      <c r="AA54" s="62"/>
-      <c r="AB54" s="62"/>
-      <c r="AC54" s="62"/>
-      <c r="AD54" s="62"/>
-      <c r="AE54" s="62"/>
-      <c r="AF54" s="62"/>
-      <c r="AG54" s="62"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61">
+        <v>1</v>
+      </c>
+      <c r="L54" s="61">
+        <v>1</v>
+      </c>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
       <c r="AH54" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:34">
-      <c r="A55" s="58">
+      <c r="A55" s="57">
         <v>36</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62">
-        <v>1</v>
-      </c>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-      <c r="Y55" s="62">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="62"/>
-      <c r="AA55" s="62">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="62"/>
-      <c r="AC55" s="62"/>
-      <c r="AD55" s="62"/>
-      <c r="AE55" s="62"/>
-      <c r="AF55" s="62"/>
-      <c r="AG55" s="62"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="61"/>
+      <c r="W55" s="61"/>
+      <c r="X55" s="61"/>
+      <c r="Y55" s="61"/>
+      <c r="Z55" s="61"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="61"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
       <c r="AH55" s="35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:34">
-      <c r="A56" s="58">
+      <c r="A56" s="57">
         <v>37</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58">
-        <v>1</v>
-      </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="62"/>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="62"/>
-      <c r="AF56" s="62"/>
-      <c r="AG56" s="62"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57">
+        <v>1</v>
+      </c>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61">
+        <v>1</v>
+      </c>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
       <c r="AH56" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:34">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="108"/>
-      <c r="C57" s="58">
+      <c r="B57" s="115"/>
+      <c r="C57" s="57">
         <f>SUM(C49:C56)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="58">
+      <c r="D57" s="57">
         <f t="shared" ref="D57:AF57" si="12">SUM(D49:D56)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="57">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F57" s="58">
+        <v>0</v>
+      </c>
+      <c r="F57" s="57">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="58">
+        <v>2</v>
+      </c>
+      <c r="G57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H57" s="58">
+      <c r="H57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I57" s="58">
+      <c r="I57" s="57">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="J57" s="58">
+        <v>1</v>
+      </c>
+      <c r="J57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K57" s="58">
+      <c r="K57" s="57">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="58">
+        <v>2</v>
+      </c>
+      <c r="L57" s="57">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="M57" s="58">
+      <c r="M57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N57" s="58">
+      <c r="N57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O57" s="58">
+      <c r="O57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P57" s="58">
+      <c r="P57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="58">
+      <c r="Q57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R57" s="58">
+      <c r="R57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S57" s="58">
+      <c r="S57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T57" s="58">
+      <c r="T57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U57" s="58">
+      <c r="U57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V57" s="58">
+      <c r="V57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W57" s="58">
+      <c r="W57" s="57">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="58">
+        <v>2</v>
+      </c>
+      <c r="X57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Y57" s="58">
+      <c r="Y57" s="57">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="Z57" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="57">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AA57" s="58">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="57">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AB57" s="58">
+        <v>2</v>
+      </c>
+      <c r="AB57" s="57">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AC57" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD57" s="58">
+      <c r="AD57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE57" s="58">
+      <c r="AE57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF57" s="58">
+      <c r="AF57" s="57">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AG57" s="58">
+      <c r="AG57" s="57">
         <f t="shared" ref="AG57" si="13">SUM(AG49:AG56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="18">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="110"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="110"/>
-      <c r="H58" s="110"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
-      <c r="K58" s="110"/>
-      <c r="L58" s="110"/>
-      <c r="M58" s="110"/>
-      <c r="N58" s="110"/>
-      <c r="O58" s="110"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="110"/>
-      <c r="S58" s="110"/>
-      <c r="T58" s="110"/>
-      <c r="U58" s="110"/>
-      <c r="V58" s="110"/>
-      <c r="W58" s="110"/>
-      <c r="X58" s="110"/>
-      <c r="Y58" s="110"/>
-      <c r="Z58" s="110"/>
-      <c r="AA58" s="110"/>
-      <c r="AB58" s="110"/>
-      <c r="AC58" s="110"/>
-      <c r="AD58" s="110"/>
-      <c r="AE58" s="110"/>
-      <c r="AF58" s="110"/>
-      <c r="AG58" s="111"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113"/>
+      <c r="S58" s="113"/>
+      <c r="T58" s="113"/>
+      <c r="U58" s="113"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
+      <c r="X58" s="113"/>
+      <c r="Y58" s="113"/>
+      <c r="Z58" s="113"/>
+      <c r="AA58" s="113"/>
+      <c r="AB58" s="113"/>
+      <c r="AC58" s="113"/>
+      <c r="AD58" s="113"/>
+      <c r="AE58" s="113"/>
+      <c r="AF58" s="113"/>
+      <c r="AG58" s="114"/>
       <c r="AH58" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:34">
-      <c r="A59" s="58">
+      <c r="A59" s="57">
         <v>38</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="62"/>
-      <c r="V59" s="62"/>
-      <c r="W59" s="62"/>
-      <c r="X59" s="62"/>
-      <c r="Y59" s="62"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="62"/>
-      <c r="AB59" s="62"/>
-      <c r="AC59" s="62"/>
-      <c r="AD59" s="62"/>
-      <c r="AE59" s="62"/>
-      <c r="AF59" s="62"/>
-      <c r="AG59" s="62"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="61"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="61"/>
+      <c r="AC59" s="61"/>
+      <c r="AD59" s="61"/>
+      <c r="AE59" s="61"/>
+      <c r="AF59" s="61"/>
+      <c r="AG59" s="61"/>
       <c r="AH59" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:34">
-      <c r="A60" s="58">
+      <c r="A60" s="57">
         <v>39</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="62"/>
-      <c r="U60" s="62"/>
-      <c r="V60" s="62"/>
-      <c r="W60" s="62"/>
-      <c r="X60" s="62"/>
-      <c r="Y60" s="62"/>
-      <c r="Z60" s="62"/>
-      <c r="AA60" s="62"/>
-      <c r="AB60" s="62"/>
-      <c r="AC60" s="62"/>
-      <c r="AD60" s="62"/>
-      <c r="AE60" s="62"/>
-      <c r="AF60" s="62"/>
-      <c r="AG60" s="62"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="61"/>
+      <c r="U60" s="61"/>
+      <c r="V60" s="61"/>
+      <c r="W60" s="61"/>
+      <c r="X60" s="61"/>
+      <c r="Y60" s="61"/>
+      <c r="Z60" s="61"/>
+      <c r="AA60" s="61"/>
+      <c r="AB60" s="61"/>
+      <c r="AC60" s="61"/>
+      <c r="AD60" s="61"/>
+      <c r="AE60" s="61"/>
+      <c r="AF60" s="61"/>
+      <c r="AG60" s="61"/>
       <c r="AH60" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:34">
-      <c r="A61" s="58">
+      <c r="A61" s="57">
         <v>40</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="62"/>
-      <c r="V61" s="62"/>
-      <c r="W61" s="62"/>
-      <c r="X61" s="62"/>
-      <c r="Y61" s="62"/>
-      <c r="Z61" s="62"/>
-      <c r="AA61" s="62"/>
-      <c r="AB61" s="62"/>
-      <c r="AC61" s="62"/>
-      <c r="AD61" s="62"/>
-      <c r="AE61" s="62"/>
-      <c r="AF61" s="62"/>
-      <c r="AG61" s="62"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="61"/>
+      <c r="U61" s="61"/>
+      <c r="V61" s="61"/>
+      <c r="W61" s="61"/>
+      <c r="X61" s="61"/>
+      <c r="Y61" s="61"/>
+      <c r="Z61" s="61"/>
+      <c r="AA61" s="61"/>
+      <c r="AB61" s="61"/>
+      <c r="AC61" s="61"/>
+      <c r="AD61" s="61"/>
+      <c r="AE61" s="61"/>
+      <c r="AF61" s="61"/>
+      <c r="AG61" s="61"/>
       <c r="AH61" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:34">
-      <c r="A62" s="58">
+      <c r="A62" s="57">
         <v>41</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="62"/>
-      <c r="W62" s="62"/>
-      <c r="X62" s="62"/>
-      <c r="Y62" s="62"/>
-      <c r="Z62" s="62"/>
-      <c r="AA62" s="62"/>
-      <c r="AB62" s="62"/>
-      <c r="AC62" s="62"/>
-      <c r="AD62" s="62"/>
-      <c r="AE62" s="62"/>
-      <c r="AF62" s="62"/>
-      <c r="AG62" s="62"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="61"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61"/>
+      <c r="X62" s="61"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="61"/>
+      <c r="AA62" s="61"/>
+      <c r="AB62" s="61"/>
+      <c r="AC62" s="61"/>
+      <c r="AD62" s="61"/>
+      <c r="AE62" s="61"/>
+      <c r="AF62" s="61"/>
+      <c r="AG62" s="61"/>
       <c r="AH62" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:34">
-      <c r="A63" s="58">
+      <c r="A63" s="57">
         <v>42</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="62"/>
-      <c r="X63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="Z63" s="62"/>
-      <c r="AA63" s="62"/>
-      <c r="AB63" s="62"/>
-      <c r="AC63" s="62"/>
-      <c r="AD63" s="62"/>
-      <c r="AE63" s="62"/>
-      <c r="AF63" s="62"/>
-      <c r="AG63" s="62"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="61"/>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="61"/>
+      <c r="AA63" s="61"/>
+      <c r="AB63" s="61"/>
+      <c r="AC63" s="61"/>
+      <c r="AD63" s="61"/>
+      <c r="AE63" s="61"/>
+      <c r="AF63" s="61"/>
+      <c r="AG63" s="61"/>
       <c r="AH63" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:34">
-      <c r="A64" s="58">
+      <c r="A64" s="57">
         <v>43</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="62"/>
-      <c r="X64" s="62"/>
-      <c r="Y64" s="62"/>
-      <c r="Z64" s="62"/>
-      <c r="AA64" s="62"/>
-      <c r="AB64" s="62"/>
-      <c r="AC64" s="62"/>
-      <c r="AD64" s="62"/>
-      <c r="AE64" s="62"/>
-      <c r="AF64" s="62"/>
-      <c r="AG64" s="62"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="61"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="61"/>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
+      <c r="AB64" s="61"/>
+      <c r="AC64" s="61"/>
+      <c r="AD64" s="61"/>
+      <c r="AE64" s="61"/>
+      <c r="AF64" s="61"/>
+      <c r="AG64" s="61"/>
       <c r="AH64" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:40">
-      <c r="A65" s="58">
+      <c r="A65" s="57">
         <v>44</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="62"/>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="62"/>
-      <c r="T65" s="62"/>
-      <c r="U65" s="62"/>
-      <c r="V65" s="62"/>
-      <c r="W65" s="62"/>
-      <c r="X65" s="62"/>
-      <c r="Y65" s="62"/>
-      <c r="Z65" s="62"/>
-      <c r="AA65" s="62"/>
-      <c r="AB65" s="62"/>
-      <c r="AC65" s="62"/>
-      <c r="AD65" s="62"/>
-      <c r="AE65" s="62"/>
-      <c r="AF65" s="62"/>
-      <c r="AG65" s="62"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="61"/>
+      <c r="AF65" s="61"/>
+      <c r="AG65" s="61"/>
       <c r="AH65" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:40">
-      <c r="A66" s="58">
+      <c r="A66" s="57">
         <v>45</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="62"/>
-      <c r="S66" s="62"/>
-      <c r="T66" s="62"/>
-      <c r="U66" s="62"/>
-      <c r="V66" s="62"/>
-      <c r="W66" s="62"/>
-      <c r="X66" s="62"/>
-      <c r="Y66" s="62"/>
-      <c r="Z66" s="62"/>
-      <c r="AA66" s="62"/>
-      <c r="AB66" s="62"/>
-      <c r="AC66" s="62"/>
-      <c r="AD66" s="62"/>
-      <c r="AE66" s="62"/>
-      <c r="AF66" s="62"/>
-      <c r="AG66" s="62"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
+      <c r="AA66" s="61"/>
+      <c r="AB66" s="61"/>
+      <c r="AC66" s="61"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="61"/>
+      <c r="AF66" s="61"/>
+      <c r="AG66" s="61"/>
       <c r="AH66" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:40">
-      <c r="A67" s="58">
+      <c r="A67" s="57">
         <v>46</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="58">
-        <v>2</v>
-      </c>
-      <c r="D67" s="58">
-        <v>2</v>
-      </c>
-      <c r="E67" s="58">
-        <v>2</v>
-      </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58">
-        <v>2</v>
-      </c>
-      <c r="H67" s="58"/>
-      <c r="I67" s="62">
-        <v>3</v>
-      </c>
-      <c r="J67" s="62">
-        <v>2</v>
-      </c>
-      <c r="K67" s="62">
-        <v>3</v>
-      </c>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62">
-        <v>4</v>
-      </c>
-      <c r="N67" s="62">
-        <v>2</v>
-      </c>
-      <c r="O67" s="62"/>
-      <c r="P67" s="62">
-        <v>2</v>
-      </c>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62">
-        <v>2</v>
-      </c>
-      <c r="S67" s="62">
-        <v>2</v>
-      </c>
-      <c r="T67" s="62">
-        <v>1</v>
-      </c>
-      <c r="U67" s="62">
-        <v>2</v>
-      </c>
-      <c r="V67" s="62"/>
-      <c r="W67" s="62">
-        <v>2</v>
-      </c>
-      <c r="X67" s="62">
-        <v>2</v>
-      </c>
-      <c r="Y67" s="62">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="62"/>
-      <c r="AA67" s="62"/>
-      <c r="AB67" s="62">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="62"/>
-      <c r="AD67" s="62">
-        <v>2</v>
-      </c>
-      <c r="AE67" s="62"/>
-      <c r="AF67" s="62"/>
-      <c r="AG67" s="62"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57">
+        <v>2</v>
+      </c>
+      <c r="F67" s="57">
+        <v>2</v>
+      </c>
+      <c r="G67" s="57">
+        <v>2</v>
+      </c>
+      <c r="H67" s="57"/>
+      <c r="I67" s="61">
+        <v>2</v>
+      </c>
+      <c r="J67" s="61">
+        <v>1</v>
+      </c>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61">
+        <v>2</v>
+      </c>
+      <c r="N67" s="61">
+        <v>1</v>
+      </c>
+      <c r="O67" s="61"/>
+      <c r="P67" s="61">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="61">
+        <v>1</v>
+      </c>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="61">
+        <v>2</v>
+      </c>
+      <c r="V67" s="61"/>
+      <c r="W67" s="61">
+        <v>2</v>
+      </c>
+      <c r="X67" s="61">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="61">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="61">
+        <v>2</v>
+      </c>
+      <c r="AA67" s="61">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="61">
+        <v>2</v>
+      </c>
+      <c r="AC67" s="61"/>
+      <c r="AD67" s="61">
+        <v>2</v>
+      </c>
+      <c r="AE67" s="61">
+        <v>2</v>
+      </c>
+      <c r="AF67" s="61">
+        <v>2</v>
+      </c>
+      <c r="AG67" s="61">
+        <v>2</v>
+      </c>
       <c r="AH67" s="35">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AN67" s="35">
         <f>SUM(C69:AG69)</f>
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="108"/>
-      <c r="C68" s="62">
+      <c r="B68" s="115"/>
+      <c r="C68" s="61">
         <f>SUM(C59:C67)</f>
-        <v>2</v>
-      </c>
-      <c r="D68" s="62">
+        <v>0</v>
+      </c>
+      <c r="D68" s="61">
         <f t="shared" ref="D68:AF68" si="14">SUM(D59:D67)</f>
-        <v>2</v>
-      </c>
-      <c r="E68" s="62">
+        <v>0</v>
+      </c>
+      <c r="E68" s="61">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="F68" s="62">
+      <c r="F68" s="61">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="62">
+        <v>2</v>
+      </c>
+      <c r="G68" s="61">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="H68" s="62">
+      <c r="H68" s="61">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I68" s="62">
+      <c r="I68" s="61">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="J68" s="62">
+        <v>2</v>
+      </c>
+      <c r="J68" s="61">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="K68" s="62">
+        <v>1</v>
+      </c>
+      <c r="K68" s="61">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="L68" s="62">
+        <v>0</v>
+      </c>
+      <c r="L68" s="61">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M68" s="62">
+      <c r="M68" s="61">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="N68" s="61">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="61">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="Q68" s="61">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R68" s="61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="61">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="V68" s="61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="61">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="X68" s="61">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="61">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Z68" s="61">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AA68" s="61">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB68" s="61">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AC68" s="61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD68" s="61">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AE68" s="61">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AF68" s="61">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AG68" s="61">
+        <f t="shared" ref="AG68" si="15">SUM(AG59:AG67)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" ht="15.6">
+      <c r="A69" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="117"/>
+      <c r="C69" s="61">
+        <f>SUM(C7+C13+C21+C26+C32+C38+C47+C57+C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="61">
+        <f t="shared" ref="D69:AF69" si="16">SUM(D7+D13+D21+D26+D32+D38+D47+D57+D68)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="61">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="F69" s="61">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="G69" s="61">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="N68" s="62">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="O68" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="62">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="Q68" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R68" s="62">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="S68" s="62">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="T68" s="62">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="U68" s="62">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="V68" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W68" s="62">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="X68" s="62">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="Y68" s="62">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Z68" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA68" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB68" s="62">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AC68" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD68" s="62">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AE68" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF68" s="62">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG68" s="62">
-        <f t="shared" ref="AG68" si="15">SUM(AG59:AG67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" ht="15.6">
-      <c r="A69" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="107"/>
-      <c r="C69" s="62">
-        <f>SUM(C7+C13+C21+C26+C32+C38+C47+C57+C68)</f>
-        <v>7</v>
-      </c>
-      <c r="D69" s="62">
-        <f t="shared" ref="D69:AF69" si="16">SUM(D7+D13+D21+D26+D32+D38+D47+D57+D68)</f>
-        <v>6</v>
-      </c>
-      <c r="E69" s="62">
+      <c r="H69" s="61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="61">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="F69" s="62">
+      <c r="J69" s="61">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="62">
+        <v>5</v>
+      </c>
+      <c r="K69" s="61">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="L69" s="61">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="M69" s="61">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="N69" s="61">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="O69" s="61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="61">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="Q69" s="61">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="R69" s="61">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="H69" s="62">
+      <c r="S69" s="61">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="62">
+        <v>2</v>
+      </c>
+      <c r="T69" s="61">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="J69" s="62">
+        <v>0</v>
+      </c>
+      <c r="U69" s="61">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="V69" s="61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="61">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="X69" s="61">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="Y69" s="61">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="K69" s="62">
+      <c r="Z69" s="61">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="L69" s="62">
+        <v>5</v>
+      </c>
+      <c r="AA69" s="61">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AB69" s="61">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AC69" s="61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD69" s="61">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AE69" s="61">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AF69" s="61">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="M69" s="62">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="N69" s="62">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="O69" s="62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="62">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="Q69" s="62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="62">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="S69" s="62">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="T69" s="62">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="U69" s="62">
-        <f t="shared" si="16"/>
+      <c r="AG69" s="61">
+        <f t="shared" ref="AG69" si="17">SUM(AG7+AG13+AG21+AG26+AG32+AG38+AG47+AG57+AG68)</f>
         <v>5</v>
-      </c>
-      <c r="V69" s="62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W69" s="62">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="X69" s="62">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="Y69" s="62">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="Z69" s="62">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="AA69" s="62">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="AB69" s="62">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AC69" s="62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD69" s="62">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="AE69" s="62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF69" s="62">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG69" s="62">
-        <f t="shared" ref="AG69" si="17">SUM(AG7+AG13+AG21+AG26+AG32+AG38+AG47+AG57+AG68)</f>
-        <v>0</v>
       </c>
       <c r="AH69" s="36">
         <f>SUM(AH6:AH67)</f>
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:40">
-      <c r="B71" s="64">
+      <c r="B71" s="63">
         <f>SUM(C69:AG69)</f>
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:AG3"/>
-    <mergeCell ref="B8:AF8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
@@ -13241,9 +13222,19 @@
     <mergeCell ref="B48:AG48"/>
     <mergeCell ref="B58:AG58"/>
     <mergeCell ref="A57:B57"/>
+    <mergeCell ref="B8:AF8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:AG3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="7" scale="50" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2021-2022/10-March/March Report.xlsx
+++ b/2021-2022/10-March/March Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Bhuvnesh\Hetal Ben\2021-2022\10-March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E8C9A-B9A2-418B-935D-30CC68EA217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EF78E-1BAC-4EBA-9D0A-8E9E7B750C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,6 +1042,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,43 +1094,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,6 +1122,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1138,24 +1156,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:AF1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22:Y39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1411,236 +1411,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="87"/>
+      <c r="A1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="88"/>
     </row>
     <row r="2" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A2" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="75"/>
+      <c r="A2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="14.25" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82"/>
     </row>
     <row r="4" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="81"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="85"/>
     </row>
     <row r="5" spans="1:29" ht="19.5" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="84"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="74"/>
     </row>
     <row r="6" spans="1:29" ht="19.5" customHeight="1">
       <c r="A6" s="39"/>
-      <c r="B6" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="82" t="s">
+      <c r="B6" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="82" t="s">
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="84"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="74"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="37.5" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="92" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="93"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="88" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="92" t="s">
+      <c r="I7" s="69"/>
+      <c r="J7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="92" t="s">
+      <c r="K7" s="76"/>
+      <c r="L7" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="93"/>
-      <c r="N7" s="92" t="s">
+      <c r="M7" s="76"/>
+      <c r="N7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="88" t="s">
+      <c r="O7" s="76"/>
+      <c r="P7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="90" t="s">
+      <c r="Q7" s="69"/>
+      <c r="R7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="91"/>
-      <c r="T7" s="90" t="s">
+      <c r="S7" s="71"/>
+      <c r="T7" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="91"/>
-      <c r="V7" s="90" t="s">
+      <c r="U7" s="71"/>
+      <c r="V7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="91"/>
-      <c r="X7" s="88" t="s">
+      <c r="W7" s="71"/>
+      <c r="X7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="89"/>
+      <c r="Y7" s="69"/>
       <c r="Z7" s="1"/>
       <c r="AA7" t="s">
         <v>119</v>
@@ -1845,11 +1845,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="46">
-        <f t="shared" ref="H10:H34" si="1">SUM(B10+D10+F10)</f>
+        <f t="shared" ref="H10:H22" si="1">SUM(B10+D10+F10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="46">
-        <f t="shared" ref="I10:I34" si="2">SUM(C10+E10+G10)</f>
+        <f t="shared" ref="I10:I22" si="2">SUM(C10+E10+G10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="39">
@@ -1871,11 +1871,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="46">
-        <f t="shared" ref="P10:P34" si="3">SUM(J10+L10+N10)</f>
+        <f t="shared" ref="P10:P22" si="3">SUM(J10+L10+N10)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="46">
-        <f t="shared" ref="Q10:Q34" si="4">SUM(K10+M10+O10)</f>
+        <f t="shared" ref="Q10:Q22" si="4">SUM(K10+M10+O10)</f>
         <v>0</v>
       </c>
       <c r="R10" s="48">
@@ -2194,11 +2194,11 @@
         <v>1</v>
       </c>
       <c r="X13" s="46">
-        <f t="shared" ref="X13:X38" si="13">SUM(R13+T13+V13)</f>
+        <f t="shared" ref="X13:X22" si="13">SUM(R13+T13+V13)</f>
         <v>4</v>
       </c>
       <c r="Y13" s="46">
-        <f t="shared" ref="Y13:Y38" si="14">SUM(S13+U13+W13)</f>
+        <f t="shared" ref="Y13:Y22" si="14">SUM(S13+U13+W13)</f>
         <v>5</v>
       </c>
       <c r="AA13" s="54">
@@ -3137,36 +3137,41 @@
         <v>8</v>
       </c>
       <c r="R23" s="48">
-        <v>0</v>
+        <f t="shared" ref="R23:R39" si="32">SUM(B23+J23)</f>
+        <v>3</v>
       </c>
       <c r="S23" s="48">
-        <v>0</v>
+        <f t="shared" ref="S23:S39" si="33">SUM(C23+K23)</f>
+        <v>2</v>
       </c>
       <c r="T23" s="48">
-        <v>0</v>
+        <f t="shared" ref="T23:T39" si="34">SUM(D23+L23)</f>
+        <v>3</v>
       </c>
       <c r="U23" s="48">
-        <v>0</v>
+        <f t="shared" ref="U23:U39" si="35">SUM(E23+M23)</f>
+        <v>6</v>
       </c>
       <c r="V23" s="48">
+        <f t="shared" ref="V23:V39" si="36">SUM(F23+N23)</f>
         <v>0</v>
       </c>
       <c r="W23" s="48">
-        <f t="shared" ref="W23" si="32">SUM(G23+O23)</f>
+        <f t="shared" ref="W23:W39" si="37">SUM(G23+O23)</f>
         <v>3</v>
       </c>
       <c r="X23" s="46">
-        <f t="shared" ref="X23:X39" si="33">SUM(R23+T23+V23)</f>
-        <v>0</v>
+        <f t="shared" ref="X23:X39" si="38">SUM(R23+T23+V23)</f>
+        <v>6</v>
       </c>
       <c r="Y23" s="46">
-        <f t="shared" ref="Y23:Y39" si="34">SUM(S23+U23+W23)</f>
-        <v>3</v>
+        <f t="shared" ref="Y23:Y39" si="39">SUM(S23+U23+W23)</f>
+        <v>11</v>
       </c>
       <c r="Z23" s="67"/>
       <c r="AA23" s="54">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AC23" s="55">
         <f t="shared" si="8"/>
@@ -3230,15 +3235,15 @@
         <v>5</v>
       </c>
       <c r="R24" s="48">
-        <f t="shared" ref="R24:W24" si="35">SUM(B24+J24)</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S24" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T24" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="U24" s="48">
@@ -3246,19 +3251,19 @@
         <v>4</v>
       </c>
       <c r="V24" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="W24" s="48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X24" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="Y24" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="AA24" s="54">
@@ -3327,19 +3332,19 @@
         <v>3</v>
       </c>
       <c r="R25" s="48">
-        <f t="shared" ref="R25:W25" si="36">SUM(B25+J25)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S25" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T25" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="U25" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="V25" s="48">
@@ -3347,15 +3352,15 @@
         <v>0</v>
       </c>
       <c r="W25" s="48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X25" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="Y25" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="AA25" s="54">
@@ -3424,23 +3429,23 @@
         <v>0</v>
       </c>
       <c r="R26" s="48">
-        <f t="shared" ref="R26:W26" si="37">SUM(B26+J26)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S26" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T26" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="U26" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V26" s="48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W26" s="48">
@@ -3448,11 +3453,11 @@
         <v>0</v>
       </c>
       <c r="X26" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Y26" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA26" s="54">
@@ -3521,35 +3526,35 @@
         <v>3</v>
       </c>
       <c r="R27" s="48">
-        <f t="shared" ref="R27:W27" si="38">SUM(B27+J27)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S27" s="48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T27" s="48">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="U27" s="48">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="V27" s="48">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="48">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="X27" s="46">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="U27" s="48">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="V27" s="48">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="48">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="X27" s="46">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
       <c r="Y27" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="AA27" s="54">
@@ -3618,29 +3623,35 @@
         <v>0</v>
       </c>
       <c r="R28" s="48">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S28" s="48">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T28" s="48">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="U28" s="48">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V28" s="48">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W28" s="48">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X28" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Y28" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA28" s="54">
@@ -3709,35 +3720,35 @@
         <v>5</v>
       </c>
       <c r="R29" s="48">
-        <f t="shared" ref="R29:W29" si="39">SUM(B29+J29)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S29" s="48">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="T29" s="48">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="U29" s="48">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="V29" s="48">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="W29" s="48">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="46">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="Y29" s="46">
         <f t="shared" si="39"/>
-        <v>4</v>
-      </c>
-      <c r="T29" s="48">
-        <f t="shared" si="39"/>
-        <v>6</v>
-      </c>
-      <c r="U29" s="48">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="V29" s="48">
-        <f t="shared" si="39"/>
-        <v>3</v>
-      </c>
-      <c r="W29" s="48">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="46">
-        <f t="shared" si="33"/>
-        <v>10</v>
-      </c>
-      <c r="Y29" s="46">
-        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="AA29" s="54">
@@ -3806,35 +3817,35 @@
         <v>8</v>
       </c>
       <c r="R30" s="48">
-        <f t="shared" ref="R30:W30" si="40">SUM(B30+J30)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S30" s="48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="T30" s="48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="U30" s="48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="V30" s="48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W30" s="48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X30" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="Y30" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="AA30" s="54">
@@ -3903,35 +3914,35 @@
         <v>5</v>
       </c>
       <c r="R31" s="48">
-        <f t="shared" ref="R31:W31" si="41">SUM(B31+J31)</f>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="S31" s="48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="T31" s="48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="U31" s="48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="V31" s="48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="W31" s="48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X31" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="Y31" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="AA31" s="54">
@@ -4000,35 +4011,35 @@
         <v>4</v>
       </c>
       <c r="R32" s="48">
-        <f t="shared" ref="R32:W32" si="42">SUM(B32+J32)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S32" s="48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="T32" s="48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="U32" s="48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="V32" s="48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="W32" s="48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X32" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="Y32" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="AA32" s="54">
@@ -4097,35 +4108,35 @@
         <v>8</v>
       </c>
       <c r="R33" s="48">
-        <f t="shared" ref="R33:W33" si="43">SUM(B33+J33)</f>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="S33" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="T33" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="U33" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="V33" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="W33" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="X33" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="Y33" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>12</v>
       </c>
       <c r="AA33" s="54">
@@ -4194,35 +4205,35 @@
         <v>1</v>
       </c>
       <c r="R34" s="48">
-        <f t="shared" ref="R34:W34" si="44">SUM(B34+J34)</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S34" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="T34" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="U34" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="V34" s="48">
-        <f>SUM(F34+N34)</f>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W34" s="48">
-        <f t="shared" si="44"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X34" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="Y34" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="AA34" s="54">
@@ -4291,35 +4302,35 @@
         <v>0</v>
       </c>
       <c r="R35" s="48">
-        <f t="shared" ref="R35:R39" si="45">SUM(B35+J35)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S35" s="48">
-        <f t="shared" ref="S35:S39" si="46">SUM(C35+K35)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T35" s="48">
-        <f t="shared" ref="T35:T39" si="47">SUM(D35+L35)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="U35" s="48">
-        <f t="shared" ref="U35:U39" si="48">SUM(E35+M35)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V35" s="48">
-        <f t="shared" ref="V35:V39" si="49">SUM(F35+N35)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W35" s="48">
-        <f t="shared" ref="W35:W39" si="50">SUM(G35+O35)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X35" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Y35" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA35" s="54">
@@ -4388,35 +4399,35 @@
         <v>5</v>
       </c>
       <c r="R36" s="48">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="S36" s="48">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="T36" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="U36" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="V36" s="48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="W36" s="48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X36" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="Y36" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="AA36" s="54">
@@ -4485,35 +4496,35 @@
         <v>6</v>
       </c>
       <c r="R37" s="48">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S37" s="48">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="T37" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="U37" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="V37" s="48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="W37" s="48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="Y37" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="Z37" s="50"/>
@@ -4583,35 +4594,35 @@
         <v>10</v>
       </c>
       <c r="R38" s="48">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="S38" s="48">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="T38" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="U38" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="V38" s="48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="W38" s="48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X38" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="Y38" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="AA38" s="54">
@@ -4682,35 +4693,35 @@
         <v>3</v>
       </c>
       <c r="R39" s="48">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="S39" s="48">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="T39" s="48">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="U39" s="48">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="V39" s="48">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W39" s="48">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="X39" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="Y39" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="AA39" s="54">
@@ -4759,27 +4770,27 @@
         <v>62</v>
       </c>
       <c r="J40" s="43">
-        <f t="shared" ref="J40:O40" si="51">SUM(J9:J39)</f>
+        <f t="shared" ref="J40:O40" si="40">SUM(J9:J39)</f>
         <v>30</v>
       </c>
       <c r="K40" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>42</v>
       </c>
       <c r="L40" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>65</v>
       </c>
       <c r="M40" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>67</v>
       </c>
       <c r="N40" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>31</v>
       </c>
       <c r="O40" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="P40" s="46">
@@ -4791,27 +4802,27 @@
         <v>124</v>
       </c>
       <c r="R40" s="46">
-        <f t="shared" ref="R40:W40" si="52">SUM(B40+J40)</f>
+        <f t="shared" ref="R40:W40" si="41">SUM(B40+J40)</f>
         <v>51</v>
       </c>
       <c r="S40" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>62</v>
       </c>
       <c r="T40" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>99</v>
       </c>
       <c r="U40" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>96</v>
       </c>
       <c r="V40" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>41</v>
       </c>
       <c r="W40" s="46">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>28</v>
       </c>
       <c r="X40" s="46">
@@ -4824,7 +4835,7 @@
       </c>
       <c r="AA40" s="60">
         <f>SUM(AA9:AA39)</f>
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="AC40" s="59">
         <f>SUM(AC9:AC39)</f>
@@ -4864,72 +4875,72 @@
     </row>
     <row r="42" spans="1:32" ht="14.25" customHeight="1">
       <c r="A42" s="25"/>
-      <c r="AB42" s="71" t="s">
+      <c r="AB42" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="AC42" s="72"/>
+      <c r="AC42" s="93"/>
       <c r="AD42" s="56">
         <f>SUM(D40+F40+L40+N40)</f>
         <v>140</v>
       </c>
-      <c r="AE42" s="68">
+      <c r="AE42" s="89">
         <f>SUM(AD42+AD43+AD44)</f>
         <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="14.25" customHeight="1">
       <c r="A43" s="25"/>
-      <c r="AB43" s="71" t="s">
+      <c r="AB43" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="AC43" s="72"/>
+      <c r="AC43" s="93"/>
       <c r="AD43" s="56">
         <f>SUM(E40+G40+M40+O40)</f>
         <v>124</v>
       </c>
-      <c r="AE43" s="68"/>
+      <c r="AE43" s="89"/>
     </row>
     <row r="44" spans="1:32" ht="14.25" customHeight="1">
       <c r="A44" s="25"/>
-      <c r="AB44" s="71" t="s">
+      <c r="AB44" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="AC44" s="72"/>
+      <c r="AC44" s="93"/>
       <c r="AD44" s="56">
         <f>SUM(B40+C40+J40+K40)</f>
         <v>113</v>
       </c>
-      <c r="AE44" s="68"/>
+      <c r="AE44" s="89"/>
     </row>
     <row r="45" spans="1:32" ht="14.25" customHeight="1">
       <c r="P45" s="6"/>
-      <c r="AB45" s="69" t="s">
+      <c r="AB45" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="AC45" s="68"/>
+      <c r="AC45" s="89"/>
       <c r="AD45" s="56">
         <f>SUM(H40+I40)</f>
         <v>127</v>
       </c>
-      <c r="AE45" s="68">
+      <c r="AE45" s="89">
         <f>SUM(H40+I40+P40+Q40)</f>
         <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="14.25" customHeight="1">
-      <c r="AB46" s="69" t="s">
+      <c r="AB46" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="AC46" s="68"/>
+      <c r="AC46" s="89"/>
       <c r="AD46" s="56">
         <f>SUM(P40+Q40)</f>
         <v>250</v>
       </c>
-      <c r="AE46" s="68"/>
+      <c r="AE46" s="89"/>
     </row>
     <row r="47" spans="1:32" ht="14.25" customHeight="1">
-      <c r="AB47" s="70"/>
-      <c r="AC47" s="70"/>
+      <c r="AB47" s="91"/>
+      <c r="AC47" s="91"/>
       <c r="AD47" s="53"/>
       <c r="AE47" s="53"/>
     </row>
@@ -5893,6 +5904,20 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AE42:AE44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AB46:AC46"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AE45:AE46"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A5:Y5"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="J6:Q6"/>
@@ -5907,20 +5932,6 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="A4:Y4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="AE42:AE44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AB46:AC46"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AE45:AE46"/>
   </mergeCells>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -9155,115 +9166,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="111"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="117"/>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="108"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="114"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="57" t="s">
@@ -9370,40 +9381,40 @@
       <c r="A5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="114"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="110"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="61">
@@ -9485,10 +9496,10 @@
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="57">
         <v>0</v>
       </c>
@@ -9616,39 +9627,39 @@
       <c r="A8" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
       <c r="AG8" s="64"/>
       <c r="AH8" s="35">
         <f t="shared" ref="AH8:AH67" si="1">SUM(C8:AG8)</f>
@@ -9836,10 +9847,10 @@
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="115"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="57">
         <f>SUM(C9:C12)</f>
         <v>0</v>
@@ -9969,40 +9980,40 @@
       <c r="A14" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="114"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
+      <c r="AE14" s="109"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="110"/>
       <c r="AH14" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10279,10 +10290,10 @@
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="57">
         <f>SUM(C18:C20)</f>
         <v>0</v>
@@ -10412,40 +10423,40 @@
       <c r="A22" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="114"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="109"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="110"/>
       <c r="AH22" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10603,10 +10614,10 @@
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="115"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="57">
         <f>SUM(C23:C25)</f>
         <v>0</v>
@@ -10966,10 +10977,10 @@
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="115"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="57">
         <f>SUM(C28:C31)</f>
         <v>0</v>
@@ -11327,10 +11338,10 @@
       </c>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="115"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="57">
         <f>SUM(C34:C37)</f>
         <v>0</v>
@@ -11460,40 +11471,40 @@
       <c r="A39" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="112" t="s">
+      <c r="B39" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
-      <c r="AA39" s="113"/>
-      <c r="AB39" s="113"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="114"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
+      <c r="U39" s="109"/>
+      <c r="V39" s="109"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
+      <c r="AE39" s="109"/>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="110"/>
       <c r="AH39" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11801,10 +11812,10 @@
       </c>
     </row>
     <row r="47" spans="1:34">
-      <c r="A47" s="115" t="s">
+      <c r="A47" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="115"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="57">
         <f>SUM(C40:C46)</f>
         <v>0</v>
@@ -11935,40 +11946,40 @@
       <c r="A48" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="113"/>
-      <c r="T48" s="113"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="113"/>
-      <c r="W48" s="113"/>
-      <c r="X48" s="113"/>
-      <c r="Y48" s="113"/>
-      <c r="Z48" s="113"/>
-      <c r="AA48" s="113"/>
-      <c r="AB48" s="113"/>
-      <c r="AC48" s="113"/>
-      <c r="AD48" s="113"/>
-      <c r="AE48" s="113"/>
-      <c r="AF48" s="113"/>
-      <c r="AG48" s="114"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="109"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="109"/>
+      <c r="O48" s="109"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="109"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="109"/>
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
+      <c r="AE48" s="109"/>
+      <c r="AF48" s="109"/>
+      <c r="AG48" s="110"/>
     </row>
     <row r="49" spans="1:34">
       <c r="A49" s="57">
@@ -12337,10 +12348,10 @@
       </c>
     </row>
     <row r="57" spans="1:34">
-      <c r="A57" s="115" t="s">
+      <c r="A57" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="115"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="57">
         <f>SUM(C49:C56)</f>
         <v>0</v>
@@ -12470,40 +12481,40 @@
       <c r="A58" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113"/>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113"/>
-      <c r="O58" s="113"/>
-      <c r="P58" s="113"/>
-      <c r="Q58" s="113"/>
-      <c r="R58" s="113"/>
-      <c r="S58" s="113"/>
-      <c r="T58" s="113"/>
-      <c r="U58" s="113"/>
-      <c r="V58" s="113"/>
-      <c r="W58" s="113"/>
-      <c r="X58" s="113"/>
-      <c r="Y58" s="113"/>
-      <c r="Z58" s="113"/>
-      <c r="AA58" s="113"/>
-      <c r="AB58" s="113"/>
-      <c r="AC58" s="113"/>
-      <c r="AD58" s="113"/>
-      <c r="AE58" s="113"/>
-      <c r="AF58" s="113"/>
-      <c r="AG58" s="114"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+      <c r="L58" s="109"/>
+      <c r="M58" s="109"/>
+      <c r="N58" s="109"/>
+      <c r="O58" s="109"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="109"/>
+      <c r="U58" s="109"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
+      <c r="X58" s="109"/>
+      <c r="Y58" s="109"/>
+      <c r="Z58" s="109"/>
+      <c r="AA58" s="109"/>
+      <c r="AB58" s="109"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="109"/>
+      <c r="AE58" s="109"/>
+      <c r="AF58" s="109"/>
+      <c r="AG58" s="110"/>
       <c r="AH58" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12941,10 +12952,10 @@
       </c>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="115"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="61">
         <f>SUM(C59:C67)</f>
         <v>0</v>
@@ -13071,10 +13082,10 @@
       </c>
     </row>
     <row r="69" spans="1:40" ht="15.6">
-      <c r="A69" s="117" t="s">
+      <c r="A69" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="117"/>
+      <c r="B69" s="106"/>
       <c r="C69" s="61">
         <f>SUM(C7+C13+C21+C26+C32+C38+C47+C57+C68)</f>
         <v>0</v>
@@ -13212,6 +13223,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="B8:AF8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A38:B38"/>
@@ -13222,16 +13243,6 @@
     <mergeCell ref="B48:AG48"/>
     <mergeCell ref="B58:AG58"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="B8:AF8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:AG2"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:AG3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="7" scale="50" orientation="portrait" r:id="rId1"/>
